--- a/biology/Zoologie/Hemimysis_anomala/Hemimysis_anomala.xlsx
+++ b/biology/Zoologie/Hemimysis_anomala/Hemimysis_anomala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemimysis anomala, la crevette rouge sang, est une espèce de crustacés appartenant à la classe des Malacostraca, à l'ordre des Mysida et à la famille des Mysidae.
-C'est une espèce invasive d'eau douce ou saumâtre qui conquiert le continent européen et l'est de l'Amérique du Nord, à partir de sa région d'origine, ponto-caspienne : mer Noire, mer Caspienne, mer d'Azov[1]. Son invasion a des conséquences importantes sur la composition du zooplancton[2].
+C'est une espèce invasive d'eau douce ou saumâtre qui conquiert le continent européen et l'est de l'Amérique du Nord, à partir de sa région d'origine, ponto-caspienne : mer Noire, mer Caspienne, mer d'Azov. Son invasion a des conséquences importantes sur la composition du zooplancton.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit aussi bien en eau stagnante qu'en eau courante. Elle a par contre besoin d'une salinité de l'eau supérieur à 19 ‰[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit aussi bien en eau stagnante qu'en eau courante. Elle a par contre besoin d'une salinité de l'eau supérieur à 19 ‰.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La crevette rouge sang suit une migration nycthémérale, pendant la nuit elle se nourrit près de la surface et redescend dans la colonne d'eau à l'aube[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La crevette rouge sang suit une migration nycthémérale, pendant la nuit elle se nourrit près de la surface et redescend dans la colonne d'eau à l'aube.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les juvéniles se nourrissent principalement de phytoplancton, puis la part de zooplancton (cladocères et copépodes) consommé augmente progressivement durant la croissance. Les adultes sont omnivores, outre de plancton, ils se nourrissent de cadavres de poissons[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les juvéniles se nourrissent principalement de phytoplancton, puis la part de zooplancton (cladocères et copépodes) consommé augmente progressivement durant la croissance. Les adultes sont omnivores, outre de plancton, ils se nourrissent de cadavres de poissons.
 </t>
         </is>
       </c>
